--- a/database/industries/folad/fakhouz/product/yearly.xlsx
+++ b/database/industries/folad/fakhouz/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD21901-5352-42A2-B286-DCC47B108CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +309,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -320,7 +321,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -367,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -402,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,17 +588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -578,7 +613,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,7 +630,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,7 +647,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -627,7 +662,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -644,7 +679,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +696,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -676,7 +711,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -713,7 +748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -728,7 +763,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -767,7 +802,7 @@
         <v>5405667</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -806,7 +841,7 @@
         <v>1748790</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -845,7 +880,7 @@
         <v>3261068</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -884,7 +919,7 @@
         <v>1580970</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -923,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -960,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1188,7 @@
         <v>11996495</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1168,7 +1203,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1183,7 +1218,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1198,7 +1233,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1250,7 +1285,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>262027</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>1769884</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>81984</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1406,7 +1441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>1655892</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +1519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1632,7 @@
         <v>3769787</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1612,7 +1647,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1627,7 +1662,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1642,7 +1677,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1694,7 +1729,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
@@ -1733,7 +1768,7 @@
         <v>9630375</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1772,7 +1807,7 @@
         <v>268314947</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>19</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>6875637</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
@@ -1850,7 +1885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1924,7 @@
         <v>217345107</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1928,7 +1963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>22</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2078,7 @@
         <v>502166066</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2058,7 +2093,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2073,7 +2108,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2088,7 +2123,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2140,7 +2175,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
@@ -2179,7 +2214,7 @@
         <v>36753369</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
@@ -2218,7 +2253,7 @@
         <v>151600301</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>19</v>
       </c>
@@ -2257,7 +2292,7 @@
         <v>83865596</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>20</v>
       </c>
@@ -2335,7 +2370,7 @@
         <v>131255605</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>23</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2467,7 +2502,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2482,7 +2517,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2497,7 +2532,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>36</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2549,7 +2584,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
@@ -2588,7 +2623,7 @@
         <v>-7622830</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +2662,7 @@
         <v>-167660311</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>-4360820</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>-158106155</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>22</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>23</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>27</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>-337750116</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2874,7 +2909,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2889,7 +2924,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2904,7 +2939,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
@@ -2941,7 +2976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2956,7 +2991,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +3030,7 @@
         <v>2007545</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>18</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>100654636</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
@@ -3073,7 +3108,7 @@
         <v>2514817</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
@@ -3112,7 +3147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>20</v>
       </c>
@@ -3151,7 +3186,7 @@
         <v>59238952</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>23</v>
       </c>
@@ -3229,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>27</v>
       </c>

--- a/database/industries/folad/fakhouz/product/yearly.xlsx
+++ b/database/industries/folad/fakhouz/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5FB61A-94AF-407E-8CD5-3A06C1641C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -67,9 +66,6 @@
     <t>آهن اسفنجی</t>
   </si>
   <si>
-    <t>بلوم ، بیلت</t>
-  </si>
-  <si>
     <t>محصولات فرعی</t>
   </si>
   <si>
@@ -119,12 +115,15 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>بلوم و بیلت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,10 +572,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -767,7 +766,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
@@ -791,7 +790,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
@@ -815,7 +814,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -837,7 +836,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -861,7 +860,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
@@ -885,7 +884,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -909,7 +908,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>11</v>
@@ -933,7 +932,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -985,7 +984,7 @@
     </row>
     <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1089,10 +1088,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
@@ -1113,7 +1112,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>11</v>
@@ -1137,7 +1136,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>11</v>
@@ -1161,7 +1160,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1183,7 +1182,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>11</v>
@@ -1207,7 +1206,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1259,7 +1258,7 @@
     </row>
     <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1294,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1318,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -1342,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
@@ -1363,10 +1362,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
@@ -1387,10 +1386,10 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -1411,10 +1410,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
@@ -1435,10 +1434,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -1459,10 +1458,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
@@ -1483,7 +1482,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1535,7 +1534,7 @@
     </row>
     <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1570,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -1594,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -1618,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
@@ -1639,10 +1638,10 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
@@ -1663,10 +1662,10 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -1687,10 +1686,10 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
@@ -1711,10 +1710,10 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -1735,10 +1734,10 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
@@ -1789,7 +1788,7 @@
     </row>
     <row r="65" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1824,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
@@ -1848,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
@@ -1872,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -1893,10 +1892,10 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -1917,10 +1916,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -1941,10 +1940,10 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -1965,10 +1964,10 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
@@ -1989,7 +1988,7 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2041,7 +2040,7 @@
     </row>
     <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2076,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
@@ -2100,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
@@ -2124,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -2145,10 +2144,10 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
@@ -2169,10 +2168,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -2193,10 +2192,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
@@ -2217,10 +2216,10 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
@@ -2241,7 +2240,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>

--- a/database/industries/folad/fakhouz/product/yearly.xlsx
+++ b/database/industries/folad/fakhouz/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FEE74-BE8E-4FA2-864A-4F3E72AAFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -66,6 +67,9 @@
     <t>آهن اسفنجی</t>
   </si>
   <si>
+    <t>بلوم ، بیلت</t>
+  </si>
+  <si>
     <t>محصولات فرعی</t>
   </si>
   <si>
@@ -115,15 +119,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>بلوم و بیلت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,17 +573,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -616,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -626,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -638,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -650,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -660,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -682,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -692,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -716,7 +717,7 @@
         <v>5405667</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -740,7 +741,7 @@
         <v>1748790</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -764,9 +765,9 @@
         <v>3261068</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
@@ -788,9 +789,9 @@
         <v>1580970</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
@@ -812,9 +813,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -834,9 +835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -858,9 +859,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
@@ -882,9 +883,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -906,9 +907,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>11</v>
@@ -930,9 +931,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -952,7 +953,7 @@
         <v>11996495</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -962,7 +963,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -972,7 +973,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -982,9 +983,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1004,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1014,7 +1015,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>262027</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>1769884</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
@@ -1086,12 +1087,12 @@
         <v>81984</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
@@ -1110,9 +1111,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>11</v>
@@ -1134,9 +1135,9 @@
         <v>1655892</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>11</v>
@@ -1158,9 +1159,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1180,9 +1181,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>11</v>
@@ -1204,9 +1205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1226,7 +1227,7 @@
         <v>3769787</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1236,7 +1237,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1246,7 +1247,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1256,9 +1257,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1278,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1288,12 +1289,12 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1312,12 +1313,12 @@
         <v>9630375</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -1336,12 +1337,12 @@
         <v>268314947</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
@@ -1360,12 +1361,12 @@
         <v>6875637</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
@@ -1384,12 +1385,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -1408,12 +1409,12 @@
         <v>217345107</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
@@ -1432,12 +1433,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -1456,12 +1457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
@@ -1480,9 +1481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1502,7 +1503,7 @@
         <v>502166066</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1512,7 +1513,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1522,7 +1523,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1532,9 +1533,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1554,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1564,12 +1565,12 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -1588,12 +1589,12 @@
         <v>36753369</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -1612,12 +1613,12 @@
         <v>151600301</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
@@ -1636,12 +1637,12 @@
         <v>83865596</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
@@ -1660,12 +1661,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -1684,12 +1685,12 @@
         <v>131255605</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
@@ -1708,12 +1709,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -1732,12 +1733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
@@ -1756,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1766,7 +1767,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1776,7 +1777,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1786,9 +1787,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1808,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1818,12 +1819,12 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
@@ -1842,12 +1843,12 @@
         <v>-7622830</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
@@ -1866,12 +1867,12 @@
         <v>-167660311</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -1890,12 +1891,12 @@
         <v>-4360820</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -1914,12 +1915,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -1938,12 +1939,12 @@
         <v>-158106155</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -1962,12 +1963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
@@ -1986,9 +1987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2008,7 +2009,7 @@
         <v>-337750116</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2018,7 +2019,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2028,7 +2029,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2038,9 +2039,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2060,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2070,12 +2071,12 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
@@ -2094,12 +2095,12 @@
         <v>2007545</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
@@ -2118,12 +2119,12 @@
         <v>100654636</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -2142,12 +2143,12 @@
         <v>2514817</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
@@ -2166,12 +2167,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -2190,12 +2191,12 @@
         <v>59238952</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
@@ -2214,12 +2215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
@@ -2238,9 +2239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
